--- a/ncov.xlsx
+++ b/ncov.xlsx
@@ -1,25 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\7930_BigData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wang\Documents\GitHub\7940project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AEE2DA-672A-4147-8385-7159FB174CA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA2D456-45DA-451A-9043-3A88977BDC84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
-  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -85,7 +81,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -93,122 +89,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color indexed="65"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -216,15 +101,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -240,203 +116,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="HP" refreshedDate="43876.503297222225" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="24" xr:uid="{A35636F5-AD71-418D-B0AA-02C4D603653F}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="B1:E1048576" sheet="Sheet1"/>
-  </cacheSource>
-  <cacheFields count="4">
-    <cacheField name="China" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="571" maxValue="48548"/>
-    </cacheField>
-    <cacheField name="World" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="581" maxValue="49053"/>
-    </cacheField>
-    <cacheField name="Oversea" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="10" maxValue="505"/>
-    </cacheField>
-    <cacheField name="Hubei" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="7153" maxValue="36602"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="24">
-  <r>
-    <n v="571"/>
-    <n v="581"/>
-    <n v="10"/>
-    <m/>
-  </r>
-  <r>
-    <n v="830"/>
-    <n v="846"/>
-    <n v="16"/>
-    <m/>
-  </r>
-  <r>
-    <n v="1297"/>
-    <n v="1320"/>
-    <n v="23"/>
-    <m/>
-  </r>
-  <r>
-    <n v="1985"/>
-    <n v="2014"/>
-    <n v="29"/>
-    <m/>
-  </r>
-  <r>
-    <n v="2761"/>
-    <n v="2798"/>
-    <n v="37"/>
-    <m/>
-  </r>
-  <r>
-    <n v="4537"/>
-    <n v="4593"/>
-    <n v="56"/>
-    <m/>
-  </r>
-  <r>
-    <n v="5997"/>
-    <n v="6065"/>
-    <n v="68"/>
-    <m/>
-  </r>
-  <r>
-    <n v="7736"/>
-    <n v="7818"/>
-    <n v="82"/>
-    <m/>
-  </r>
-  <r>
-    <n v="9720"/>
-    <n v="9826"/>
-    <n v="106"/>
-    <m/>
-  </r>
-  <r>
-    <n v="11821"/>
-    <n v="11953"/>
-    <n v="132"/>
-    <n v="7153"/>
-  </r>
-  <r>
-    <n v="14411"/>
-    <n v="14557"/>
-    <n v="146"/>
-    <n v="9074"/>
-  </r>
-  <r>
-    <n v="17238"/>
-    <n v="17391"/>
-    <n v="153"/>
-    <n v="11177"/>
-  </r>
-  <r>
-    <n v="20471"/>
-    <n v="20630"/>
-    <n v="159"/>
-    <n v="13522"/>
-  </r>
-  <r>
-    <n v="24363"/>
-    <n v="24554"/>
-    <n v="191"/>
-    <n v="16678"/>
-  </r>
-  <r>
-    <n v="28060"/>
-    <n v="28276"/>
-    <n v="216"/>
-    <n v="19665"/>
-  </r>
-  <r>
-    <n v="31211"/>
-    <n v="31481"/>
-    <n v="270"/>
-    <n v="22112"/>
-  </r>
-  <r>
-    <n v="34598"/>
-    <n v="34886"/>
-    <n v="288"/>
-    <n v="24953"/>
-  </r>
-  <r>
-    <n v="37251"/>
-    <n v="37558"/>
-    <n v="307"/>
-    <n v="27100"/>
-  </r>
-  <r>
-    <n v="40235"/>
-    <n v="40554"/>
-    <n v="319"/>
-    <n v="29631"/>
-  </r>
-  <r>
-    <n v="42708"/>
-    <n v="43103"/>
-    <n v="395"/>
-    <n v="31728"/>
-  </r>
-  <r>
-    <n v="44730"/>
-    <n v="45171"/>
-    <n v="441"/>
-    <n v="33366"/>
-  </r>
-  <r>
-    <n v="46550"/>
-    <n v="46997"/>
-    <n v="447"/>
-    <n v="34874"/>
-  </r>
-  <r>
-    <n v="48548"/>
-    <n v="49053"/>
-    <n v="505"/>
-    <n v="36602"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2191A18C-41D1-4A04-BCCD-00407A830D56}" name="数据透视表1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="4">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -701,115 +380,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51AF273C-0252-4CDA-89D9-D7DBC6177255}">
-  <dimension ref="A3:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="6"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="8"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="6"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E24"/>
   <sheetViews>
@@ -817,12 +387,12 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.77734375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -839,7 +409,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43853</v>
       </c>
@@ -854,7 +424,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43854</v>
       </c>
@@ -869,7 +439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>43855</v>
       </c>
@@ -884,7 +454,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>43856</v>
       </c>
@@ -899,7 +469,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>43857</v>
       </c>
@@ -914,7 +484,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>43858</v>
       </c>
@@ -929,7 +499,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>43859</v>
       </c>
@@ -944,7 +514,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>43860</v>
       </c>
@@ -959,7 +529,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>43861</v>
       </c>
@@ -974,7 +544,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>43862</v>
       </c>
@@ -992,7 +562,7 @@
         <v>7153</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>43863</v>
       </c>
@@ -1010,7 +580,7 @@
         <v>9074</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>43864</v>
       </c>
@@ -1028,7 +598,7 @@
         <v>11177</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>43865</v>
       </c>
@@ -1046,7 +616,7 @@
         <v>13522</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>43866</v>
       </c>
@@ -1064,7 +634,7 @@
         <v>16678</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>43867</v>
       </c>
@@ -1082,7 +652,7 @@
         <v>19665</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>43868</v>
       </c>
@@ -1100,7 +670,7 @@
         <v>22112</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>43869</v>
       </c>
@@ -1118,7 +688,7 @@
         <v>24953</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>43870</v>
       </c>
@@ -1136,7 +706,7 @@
         <v>27100</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>43871</v>
       </c>
@@ -1154,7 +724,7 @@
         <v>29631</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>43872</v>
       </c>
@@ -1172,7 +742,7 @@
         <v>31728</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>43873</v>
       </c>
@@ -1190,7 +760,7 @@
         <v>33366</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>43874</v>
       </c>
@@ -1208,7 +778,7 @@
         <v>34874</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>43875</v>
       </c>
